--- a/yabuki-a/PM演習矢吹a/第2回外部設計書.xlsx
+++ b/yabuki-a/PM演習矢吹a/第2回外部設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -259,31 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下表に本システムで提供する機能の一覧表を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1649,6 +1624,25 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下表に本システムで提供する機能を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2163,7 +2157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2459,6 +2453,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2467,10 +2467,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2482,20 +2482,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2506,26 +2500,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2545,10 +2527,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3099,8 +3087,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3450290" y="3507436"/>
-          <a:ext cx="1483660" cy="503284"/>
+          <a:off x="3134060" y="3446476"/>
+          <a:ext cx="1323640" cy="491854"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -3730,8 +3718,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7056344" y="1998008"/>
-          <a:ext cx="945776" cy="387724"/>
+          <a:off x="6366734" y="1971338"/>
+          <a:ext cx="839096" cy="380104"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -6459,14 +6447,11 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>にゅう</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8647,22 +8632,22 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -8678,14 +8663,14 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P1" s="68">
         <v>41782</v>
       </c>
       <c r="Q1" s="69"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8701,12 +8686,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P2" s="80"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8725,7 +8710,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="59"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8744,13 +8729,13 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="59"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
@@ -8765,7 +8750,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -8784,7 +8769,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -8803,7 +8788,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -8822,7 +8807,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="50"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="49"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -8841,12 +8826,12 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="50"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
@@ -8862,7 +8847,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -8881,7 +8866,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -8900,13 +8885,13 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
@@ -8921,7 +8906,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -8940,7 +8925,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="50"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -8959,7 +8944,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="49"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -8978,7 +8963,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="50"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -8997,7 +8982,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="49"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -9016,14 +9001,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
       <c r="F19" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="79"/>
       <c r="H19" s="79"/>
@@ -9037,7 +9022,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -9056,7 +9041,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -9075,7 +9060,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9094,7 +9079,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9113,7 +9098,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9132,7 +9117,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -9151,7 +9136,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -9170,7 +9155,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9189,7 +9174,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="50"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9208,7 +9193,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="50"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="49"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9220,7 +9205,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" s="83"/>
       <c r="M29" s="83"/>
@@ -9229,7 +9214,7 @@
       <c r="P29" s="84"/>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A30" s="49"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9241,20 +9226,20 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L30" s="71"/>
       <c r="M30" s="71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N30" s="71"/>
       <c r="O30" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P30" s="76"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="49"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9273,7 +9258,7 @@
       <c r="P31" s="77"/>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9292,7 +9277,7 @@
       <c r="P32" s="77"/>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="49"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9311,7 +9296,7 @@
       <c r="P33" s="77"/>
       <c r="Q33" s="50"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9330,7 +9315,7 @@
       <c r="P34" s="77"/>
       <c r="Q34" s="50"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="49"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9349,7 +9334,7 @@
       <c r="P35" s="77"/>
       <c r="Q35" s="50"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9368,7 +9353,7 @@
       <c r="P36" s="78"/>
       <c r="Q36" s="50"/>
     </row>
-    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -9423,18 +9408,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
@@ -9450,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -9465,14 +9450,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9490,13 +9475,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9512,11 +9497,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9532,59 +9517,59 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="128" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="B6" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="73">
         <v>3</v>
       </c>
       <c r="F6" s="73"/>
       <c r="G6" s="73"/>
       <c r="H6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
+        <v>56</v>
+      </c>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
       <c r="L6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
+        <v>56</v>
+      </c>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
+      <c r="B7" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
       <c r="H7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
+        <v>55</v>
+      </c>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
+        <v>55</v>
+      </c>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -9602,7 +9587,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -9620,7 +9605,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -9638,7 +9623,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -9656,7 +9641,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -9674,7 +9659,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -9692,7 +9677,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -9710,7 +9695,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9728,7 +9713,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9746,7 +9731,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -9764,7 +9749,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -9781,10 +9766,10 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -9802,7 +9787,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -9820,7 +9805,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -9838,7 +9823,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -9856,7 +9841,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -9874,7 +9859,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -9892,7 +9877,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -9910,7 +9895,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -9928,7 +9913,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -9946,7 +9931,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -9964,7 +9949,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -9982,7 +9967,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -10000,7 +9985,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -10017,10 +10002,10 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -10038,7 +10023,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -10056,7 +10041,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -10074,7 +10059,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -10092,7 +10077,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -10110,7 +10095,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -10128,7 +10113,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -10146,7 +10131,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10166,17 +10151,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10199,18 +10184,18 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
@@ -10226,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -10241,14 +10226,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10266,13 +10251,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10288,11 +10273,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10308,7 +10293,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10326,14 +10311,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -10348,37 +10333,37 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="109"/>
+      <c r="G8" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="36" t="s">
+      <c r="H8" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="I8" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
+      <c r="J8" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -10399,7 +10384,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -10420,7 +10405,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -10441,7 +10426,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -10462,7 +10447,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -10483,7 +10468,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -10504,7 +10489,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -10525,7 +10510,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -10546,7 +10531,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="33"/>
@@ -10567,7 +10552,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10588,7 +10573,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10609,7 +10594,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10630,7 +10615,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10651,7 +10636,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10672,7 +10657,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10693,7 +10678,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10714,7 +10699,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10735,7 +10720,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10756,7 +10741,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10774,7 +10759,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10792,7 +10777,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10810,7 +10795,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10828,7 +10813,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10846,7 +10831,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10864,7 +10849,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10882,7 +10867,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10900,7 +10885,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10918,7 +10903,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10936,7 +10921,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10954,7 +10939,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10972,7 +10957,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10992,12 +10977,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -11014,25 +11012,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11050,25 +11035,25 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="12" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
@@ -11093,20 +11078,20 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="19">
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11124,7 +11109,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11141,11 +11126,11 @@
       <c r="J4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11156,7 +11141,7 @@
       <c r="J5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11169,7 +11154,7 @@
       <c r="J6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11187,7 +11172,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -11209,7 +11194,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -11231,12 +11216,12 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11251,7 +11236,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11269,7 +11254,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -11291,12 +11276,12 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -11311,7 +11296,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11329,7 +11314,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11347,7 +11332,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11365,7 +11350,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>12</v>
@@ -11387,7 +11372,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11407,7 +11392,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -11427,7 +11412,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11445,7 +11430,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11463,7 +11448,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11481,7 +11466,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11499,7 +11484,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11517,7 +11502,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11535,7 +11520,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11553,7 +11538,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11571,7 +11556,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11589,7 +11574,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11607,7 +11592,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11625,7 +11610,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11643,7 +11628,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11661,7 +11646,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11679,7 +11664,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11697,7 +11682,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11715,7 +11700,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11735,7 +11720,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -11776,25 +11761,25 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
@@ -11819,20 +11804,20 @@
         <v>2</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N1" s="67" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="19">
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11850,10 +11835,10 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>20</v>
@@ -11872,11 +11857,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11892,7 +11877,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11910,41 +11895,41 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="106"/>
+      <c r="G7" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="103" t="s">
+      <c r="H7" s="106"/>
+      <c r="I7" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="103" t="s">
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="67" t="s">
+      <c r="N7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="67" t="s">
-        <v>27</v>
-      </c>
       <c r="O7" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11952,35 +11937,35 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
+      <c r="E8" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="99"/>
+      <c r="G8" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" ref="P8:P19" si="0">IF(N8="",0,IF(O8="",0,IF(N8="低",$N$22,IF(N8="中",$N$23,$N$24))*IF(O8="小",$O$22,IF(O8="中",$O$23,$O$24))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11988,33 +11973,33 @@
         <f t="shared" ref="D9:D19" si="1">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -12022,33 +12007,33 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="101" t="s">
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
       <c r="M10" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -12056,33 +12041,33 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12090,35 +12075,35 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E12" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
+      <c r="E12" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -12126,33 +12111,33 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="102"/>
       <c r="M13" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -12160,33 +12145,33 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -12194,35 +12179,35 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E15" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
+      <c r="E15" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="99"/>
+      <c r="G15" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="102"/>
       <c r="M15" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12230,35 +12215,35 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E16" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="108" t="s">
+      <c r="E16" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12266,14 +12251,14 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="102"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -12282,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12290,14 +12275,14 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="102"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -12306,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12314,14 +12299,14 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="102"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -12330,30 +12315,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P20" s="9">
         <f>SUM(P8:P19)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -12371,7 +12356,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12393,7 +12378,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12411,7 +12396,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12429,7 +12414,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12447,7 +12432,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12465,7 +12450,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12483,7 +12468,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12501,7 +12486,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12519,7 +12504,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12537,7 +12522,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12555,7 +12540,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12573,7 +12558,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12591,7 +12576,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12609,7 +12594,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12636,20 +12621,21 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="45">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E17:F17"/>
@@ -12666,21 +12652,20 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I17:L17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -12714,18 +12699,18 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
@@ -12741,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -12750,20 +12735,20 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="19">
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12781,13 +12766,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -12803,11 +12788,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -12823,81 +12808,81 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="103" t="s">
+      <c r="C6" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="114"/>
+      <c r="E6" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="106"/>
+      <c r="G6" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="111" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="111"/>
       <c r="E7" s="112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="113"/>
-      <c r="G7" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="G7" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="111"/>
       <c r="E8" s="112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="113"/>
-      <c r="G8" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
+      <c r="G8" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="111" t="s">
@@ -12905,133 +12890,133 @@
       </c>
       <c r="D9" s="111"/>
       <c r="E9" s="112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="113"/>
-      <c r="G9" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="G9" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="111"/>
       <c r="D10" s="111"/>
       <c r="E10" s="112"/>
       <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="111"/>
       <c r="D11" s="111"/>
       <c r="E11" s="112"/>
       <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="111"/>
       <c r="D12" s="111"/>
       <c r="E12" s="112"/>
       <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="111"/>
       <c r="D13" s="111"/>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="111"/>
       <c r="D14" s="111"/>
       <c r="E14" s="112"/>
       <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="111"/>
       <c r="D15" s="111"/>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13049,13 +13034,13 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -13071,11 +13056,11 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -13091,7 +13076,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13109,7 +13094,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13127,7 +13112,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13145,7 +13130,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13163,7 +13148,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13181,7 +13166,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13199,7 +13184,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13217,7 +13202,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13235,7 +13220,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13253,7 +13238,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13271,7 +13256,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13289,7 +13274,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13307,7 +13292,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13325,7 +13310,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13343,7 +13328,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13361,7 +13346,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13379,7 +13364,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13397,7 +13382,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13415,7 +13400,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13433,7 +13418,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -13453,16 +13438,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -13479,13 +13461,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13508,18 +13493,18 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
@@ -13535,7 +13520,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -13544,20 +13529,20 @@
         <v>2</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="19">
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13575,13 +13560,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -13597,11 +13582,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -13617,7 +13602,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -13635,14 +13620,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -13657,7 +13642,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -13675,7 +13660,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -13693,7 +13678,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -13711,7 +13696,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -13729,7 +13714,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -13747,7 +13732,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -13765,7 +13750,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -13783,7 +13768,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -13801,7 +13786,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13819,7 +13804,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13837,7 +13822,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13855,7 +13840,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13873,7 +13858,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13891,7 +13876,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13909,7 +13894,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13927,7 +13912,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13945,7 +13930,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13963,7 +13948,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13981,7 +13966,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13999,7 +13984,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14017,7 +14002,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14035,7 +14020,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14053,7 +14038,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14071,7 +14056,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14089,7 +14074,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14107,7 +14092,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14125,7 +14110,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14143,7 +14128,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14161,7 +14146,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14179,7 +14164,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14197,7 +14182,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14215,7 +14200,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14260,18 +14245,18 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
@@ -14287,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -14296,20 +14281,20 @@
         <v>2</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="19">
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14327,13 +14312,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -14349,11 +14334,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -14369,7 +14354,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -14387,14 +14372,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -14409,7 +14394,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -14427,7 +14412,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -14445,7 +14430,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -14463,7 +14448,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -14481,7 +14466,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -14499,7 +14484,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -14517,7 +14502,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -14535,7 +14520,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -14553,7 +14538,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14571,7 +14556,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14589,7 +14574,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14607,7 +14592,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14625,7 +14610,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14643,7 +14628,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14661,7 +14646,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14679,7 +14664,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14697,7 +14682,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14715,7 +14700,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14733,7 +14718,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14751,7 +14736,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14769,7 +14754,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14787,7 +14772,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14805,7 +14790,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14823,7 +14808,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14841,7 +14826,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14859,7 +14844,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14877,7 +14862,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14895,7 +14880,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14913,7 +14898,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14931,7 +14916,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14949,7 +14934,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14967,7 +14952,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15008,22 +14993,22 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
@@ -15039,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -15048,20 +15033,20 @@
         <v>2</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N1" s="62" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="19">
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15079,13 +15064,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -15101,11 +15086,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15121,7 +15106,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15139,14 +15124,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -15161,7 +15146,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15179,7 +15164,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15197,7 +15182,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15215,7 +15200,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15233,7 +15218,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15251,7 +15236,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -15269,7 +15254,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -15287,7 +15272,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15305,7 +15290,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15323,7 +15308,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15341,7 +15326,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15359,7 +15344,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15377,7 +15362,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15395,7 +15380,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15413,7 +15398,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15431,7 +15416,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15449,7 +15434,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15467,7 +15452,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15485,7 +15470,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15503,7 +15488,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15521,7 +15506,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15539,7 +15524,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15557,7 +15542,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15575,7 +15560,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15593,7 +15578,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15611,7 +15596,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15629,7 +15614,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15647,7 +15632,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15665,7 +15650,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -15683,7 +15668,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -15700,7 +15685,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15718,7 +15703,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15763,18 +15748,18 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
@@ -15790,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -15799,20 +15784,20 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="19">
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15830,13 +15815,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -15852,11 +15837,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15872,7 +15857,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15890,237 +15875,237 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="107"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="104"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="106"/>
       <c r="L7" s="2"/>
       <c r="M7" s="64"/>
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="104"/>
+      <c r="F8" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="106"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="104"/>
+      <c r="J8" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="106"/>
       <c r="L8" s="2"/>
       <c r="M8" s="65"/>
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="118"/>
+        <v>67</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="116"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="118"/>
+        <v>67</v>
+      </c>
+      <c r="J9" s="115" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="116"/>
       <c r="L9" s="2"/>
       <c r="M9" s="38"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="118"/>
+      <c r="F10" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="116"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="117" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="118"/>
+      <c r="J10" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="116"/>
       <c r="L10" s="2"/>
       <c r="M10" s="38"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="118"/>
+      <c r="F11" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="116"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
       <c r="L11" s="2"/>
       <c r="M11" s="38"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="116"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
       <c r="L12" s="2"/>
       <c r="M12" s="38"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="118"/>
+        <v>69</v>
+      </c>
+      <c r="F13" s="115" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="116"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
       <c r="L13" s="2"/>
       <c r="M13" s="38"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="118"/>
+      <c r="F14" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="116"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
       <c r="L14" s="2"/>
       <c r="M14" s="38"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="118"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="118"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="116"/>
       <c r="L15" s="2"/>
       <c r="M15" s="38"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
       <c r="L16" s="2"/>
       <c r="M16" s="38"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="118"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="116"/>
       <c r="L17" s="2"/>
       <c r="M17" s="38"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16138,7 +16123,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16156,7 +16141,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16174,7 +16159,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16192,7 +16177,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16210,7 +16195,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16228,7 +16213,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16246,7 +16231,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16264,7 +16249,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16282,7 +16267,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16300,7 +16285,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -16318,7 +16303,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -16336,7 +16321,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -16354,7 +16339,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -16372,7 +16357,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -16390,7 +16375,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -16408,7 +16393,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -16426,7 +16411,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -16444,7 +16429,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -16462,7 +16447,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -16480,7 +16465,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -16498,7 +16483,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16518,15 +16503,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
@@ -16543,6 +16519,15 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16565,18 +16550,18 @@
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -16592,14 +16577,14 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="119" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="P1" s="123" t="s">
+        <v>77</v>
       </c>
       <c r="Q1" s="69"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -16615,12 +16600,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P2" s="80"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -16639,7 +16624,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="59"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -16658,13 +16643,13 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="59"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
@@ -16679,7 +16664,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -16698,7 +16683,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -16717,7 +16702,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -16736,7 +16721,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="50"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="49"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -16755,73 +16740,73 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="50"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="120" t="str">
+      <c r="D10" s="124" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
@@ -16836,7 +16821,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -16855,7 +16840,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="50"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -16874,7 +16859,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="49"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -16893,7 +16878,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="50"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16912,7 +16897,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="49"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16931,14 +16916,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
       <c r="F19" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="79"/>
       <c r="H19" s="79"/>
@@ -16952,7 +16937,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16971,7 +16956,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16990,7 +16975,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -17009,7 +16994,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -17028,7 +17013,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -17047,7 +17032,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -17066,7 +17051,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -17085,7 +17070,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -17104,7 +17089,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="50"/>
     </row>
-    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -17114,7 +17099,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" s="83"/>
       <c r="K28" s="83"/>
@@ -17125,7 +17110,7 @@
       <c r="P28" s="84"/>
       <c r="Q28" s="50"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="49"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -17135,24 +17120,24 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J29" s="71"/>
       <c r="K29" s="71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L29" s="71"/>
       <c r="M29" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N29" s="71"/>
       <c r="O29" s="71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P29" s="76"/>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="49"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -17167,13 +17152,13 @@
       <c r="L30" s="73"/>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
-      <c r="O30" s="121" t="s">
-        <v>107</v>
-      </c>
-      <c r="P30" s="122"/>
+      <c r="O30" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" s="118"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="49"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -17188,11 +17173,11 @@
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="124"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="120"/>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -17207,11 +17192,11 @@
       <c r="L32" s="73"/>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="124"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="120"/>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="49"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -17226,11 +17211,11 @@
       <c r="L33" s="73"/>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="124"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="120"/>
       <c r="Q33" s="50"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -17245,11 +17230,11 @@
       <c r="L34" s="73"/>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="124"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="120"/>
       <c r="Q34" s="50"/>
     </row>
-    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -17264,11 +17249,11 @@
       <c r="L35" s="75"/>
       <c r="M35" s="75"/>
       <c r="N35" s="75"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="126"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="122"/>
       <c r="Q35" s="50"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
@@ -17289,12 +17274,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -17304,6 +17283,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
